--- a/Data/Local_MH_authorities.xlsx
+++ b/Data/Local_MH_authorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\MH_Dashboard_Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\met48\Desktop\MH_Dashboard_Tutorial\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5F25B4-0A54-4424-A5B0-FF1C788EF7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95AF1F-53E8-44DB-A7D0-8733D08DC22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="645" windowWidth="24660" windowHeight="14175" xr2:uid="{AB340E57-3C23-446D-8C60-09C03DE71631}"/>
+    <workbookView xWindow="3255" yWindow="105" windowWidth="20625" windowHeight="14505" xr2:uid="{AB340E57-3C23-446D-8C60-09C03DE71631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>https://bettyhardwick.org/</t>
   </si>
   <si>
-    <t>Callahan, Jones, Shackleford, Stephens and Taylor</t>
-  </si>
-  <si>
     <t>Bluebonnet Trails Community Servicesw</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>http://www.gulfbend.org/</t>
   </si>
   <si>
-    <t>Calhoun, DeWitt, Goliad, Jackson, Lavaca, Refugio and Victoria</t>
-  </si>
-  <si>
     <t>Gulf Coast Center</t>
   </si>
   <si>
@@ -820,6 +814,12 @@
   </si>
   <si>
     <t>Toll_Free</t>
+  </si>
+  <si>
+    <t>Callahan, Jones, Shackelford, Stephens and Taylor</t>
+  </si>
+  <si>
+    <t>Calhoun, De Witt, Goliad, Jackson, Lavaca, Refugio and Victoria</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4EAB84-35AA-4D4C-8397-158B0912A747}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,25 +1210,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" t="s">
         <v>256</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>257</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>258</v>
-      </c>
-      <c r="F1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" t="s">
-        <v>260</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1300,787 +1300,787 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>58</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" t="s">
         <v>64</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>65</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>78</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>84</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" t="s">
         <v>91</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>92</v>
-      </c>
-      <c r="I15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="H17" t="s">
         <v>103</v>
       </c>
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="H18" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="H19" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="H19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="H21" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="I21" t="s">
         <v>128</v>
-      </c>
-      <c r="H21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="H22" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="I22" t="s">
         <v>135</v>
-      </c>
-      <c r="H22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="I23" t="s">
         <v>141</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
         <v>144</v>
       </c>
-      <c r="B24" t="s">
+      <c r="H24" t="s">
         <v>145</v>
       </c>
-      <c r="C24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>146</v>
-      </c>
-      <c r="H24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
         <v>149</v>
       </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>150</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>151</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>152</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>153</v>
-      </c>
-      <c r="H25" t="s">
-        <v>154</v>
-      </c>
-      <c r="I25" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
         <v>156</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>157</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>158</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>160</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
         <v>163</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>164</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
         <v>165</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>167</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>171</v>
       </c>
-      <c r="C28" t="s">
+      <c r="H28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>173</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="s">
         <v>176</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
         <v>177</v>
       </c>
-      <c r="C29" t="s">
+      <c r="H29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>179</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
         <v>182</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>183</v>
       </c>
-      <c r="C30" t="s">
+      <c r="H30" t="s">
         <v>184</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
         <v>185</v>
-      </c>
-      <c r="H30" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
         <v>188</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>189</v>
       </c>
-      <c r="C31" t="s">
+      <c r="H31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>191</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
         <v>194</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>195</v>
       </c>
-      <c r="C32" t="s">
+      <c r="H32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I32" t="s">
         <v>197</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I32" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" t="s">
         <v>200</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>201</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>202</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>204</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I33" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
         <v>207</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>208</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>209</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E34" t="s">
+      <c r="I34" t="s">
         <v>211</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I34" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
         <v>214</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
         <v>215</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
         <v>216</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>218</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I35" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
         <v>221</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>222</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>223</v>
       </c>
-      <c r="D36" t="s">
+      <c r="H36" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>225</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I36" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" t="s">
         <v>228</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>229</v>
       </c>
-      <c r="C37" t="s">
+      <c r="G37" t="s">
         <v>230</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>232</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I37" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" t="s">
         <v>235</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>236</v>
       </c>
-      <c r="C38" t="s">
+      <c r="H38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E38" t="s">
+      <c r="I38" t="s">
         <v>238</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I38" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" t="s">
         <v>241</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>242</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>243</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>245</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I39" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" t="s">
         <v>248</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E40" t="s">
         <v>249</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>250</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
         <v>252</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I40" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
